--- a/natmiOut/OldD2/LR-pairs_lrc2p/Anxa1-Dysf.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Anxa1-Dysf.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.8421325470989</v>
+        <v>19.892432</v>
       </c>
       <c r="H2">
-        <v>19.8421325470989</v>
+        <v>39.784864</v>
       </c>
       <c r="I2">
-        <v>0.03829315153645891</v>
+        <v>0.03638758592113072</v>
       </c>
       <c r="J2">
-        <v>0.03829315153645891</v>
+        <v>0.02605491730493311</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>52.1523939972848</v>
+        <v>52.251791</v>
       </c>
       <c r="N2">
-        <v>52.1523939972848</v>
+        <v>104.503582</v>
       </c>
       <c r="O2">
-        <v>0.5922575149868834</v>
+        <v>0.5844836378714966</v>
       </c>
       <c r="P2">
-        <v>0.5922575149868834</v>
+        <v>0.4905863370482637</v>
       </c>
       <c r="Q2">
-        <v>1034.81471434265</v>
+        <v>1039.415199345712</v>
       </c>
       <c r="R2">
-        <v>1034.81471434265</v>
+        <v>4157.660797382848</v>
       </c>
       <c r="S2">
-        <v>0.02267940676999931</v>
+        <v>0.02126794859254414</v>
       </c>
       <c r="T2">
-        <v>0.02267940676999931</v>
+        <v>0.01278218644272256</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.8421325470989</v>
+        <v>19.892432</v>
       </c>
       <c r="H3">
-        <v>19.8421325470989</v>
+        <v>39.784864</v>
       </c>
       <c r="I3">
-        <v>0.03829315153645891</v>
+        <v>0.03638758592113072</v>
       </c>
       <c r="J3">
-        <v>0.03829315153645891</v>
+        <v>0.02605491730493311</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.89971834182711</v>
+        <v>0.9364056666666668</v>
       </c>
       <c r="N3">
-        <v>0.89971834182711</v>
+        <v>2.809217</v>
       </c>
       <c r="O3">
-        <v>0.01021745903642287</v>
+        <v>0.01047454604143267</v>
       </c>
       <c r="P3">
-        <v>0.01021745903642287</v>
+        <v>0.01318771521155813</v>
       </c>
       <c r="Q3">
-        <v>17.85233059358955</v>
+        <v>18.62738604858134</v>
       </c>
       <c r="R3">
-        <v>17.85233059358955</v>
+        <v>111.764316291488</v>
       </c>
       <c r="S3">
-        <v>0.0003912587071993024</v>
+        <v>0.0003811434440674711</v>
       </c>
       <c r="T3">
-        <v>0.0003912587071993024</v>
+        <v>0.0003436048292781556</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.8421325470989</v>
+        <v>19.892432</v>
       </c>
       <c r="H4">
-        <v>19.8421325470989</v>
+        <v>39.784864</v>
       </c>
       <c r="I4">
-        <v>0.03829315153645891</v>
+        <v>0.03638758592113072</v>
       </c>
       <c r="J4">
-        <v>0.03829315153645891</v>
+        <v>0.02605491730493311</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>32.2070221537436</v>
+        <v>0.01428866666666667</v>
       </c>
       <c r="N4">
-        <v>32.2070221537436</v>
+        <v>0.042866</v>
       </c>
       <c r="O4">
-        <v>0.3657521629188639</v>
+        <v>0.0001598316864137063</v>
       </c>
       <c r="P4">
-        <v>0.3657521629188639</v>
+        <v>0.0002012320871825319</v>
       </c>
       <c r="Q4">
-        <v>639.0560025219312</v>
+        <v>0.2842363300373333</v>
       </c>
       <c r="R4">
-        <v>639.0560025219312</v>
+        <v>1.705417980224</v>
       </c>
       <c r="S4">
-        <v>0.01400580299943966</v>
+        <v>5.815889222297961E-06</v>
       </c>
       <c r="T4">
-        <v>0.01400580299943966</v>
+        <v>5.24308539063996E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.8421325470989</v>
+        <v>19.892432</v>
       </c>
       <c r="H5">
-        <v>19.8421325470989</v>
+        <v>39.784864</v>
       </c>
       <c r="I5">
-        <v>0.03829315153645891</v>
+        <v>0.03638758592113072</v>
       </c>
       <c r="J5">
-        <v>0.03829315153645891</v>
+        <v>0.02605491730493311</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>2.79782160746481</v>
+        <v>0.07195466666666667</v>
       </c>
       <c r="N5">
-        <v>2.79782160746481</v>
+        <v>0.215864</v>
       </c>
       <c r="O5">
-        <v>0.03177286305782982</v>
+        <v>0.0008048781588207043</v>
       </c>
       <c r="P5">
-        <v>0.03177286305782982</v>
+        <v>0.001013361714822238</v>
       </c>
       <c r="Q5">
-        <v>55.51474717845407</v>
+        <v>1.431353313749333</v>
       </c>
       <c r="R5">
-        <v>55.51474717845407</v>
+        <v>8.588119882496001</v>
       </c>
       <c r="S5">
-        <v>0.001216683059820635</v>
+        <v>2.928757316012987E-05</v>
       </c>
       <c r="T5">
-        <v>0.001216683059820635</v>
+        <v>2.640305567967864E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>200.994713713177</v>
+        <v>19.892432</v>
       </c>
       <c r="H6">
-        <v>200.994713713177</v>
+        <v>39.784864</v>
       </c>
       <c r="I6">
-        <v>0.3878978739798406</v>
+        <v>0.03638758592113072</v>
       </c>
       <c r="J6">
-        <v>0.3878978739798406</v>
+        <v>0.02605491730493311</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>52.1523939972848</v>
+        <v>33.198649</v>
       </c>
       <c r="N6">
-        <v>52.1523939972848</v>
+        <v>99.595947</v>
       </c>
       <c r="O6">
-        <v>0.5922575149868834</v>
+        <v>0.3713569768343236</v>
       </c>
       <c r="P6">
-        <v>0.5922575149868834</v>
+        <v>0.467547713566249</v>
       </c>
       <c r="Q6">
-        <v>10482.35550094107</v>
+        <v>660.4018677243679</v>
       </c>
       <c r="R6">
-        <v>10482.35550094107</v>
+        <v>3962.411206346208</v>
       </c>
       <c r="S6">
-        <v>0.2297354309119957</v>
+        <v>0.0135127839019703</v>
       </c>
       <c r="T6">
-        <v>0.2297354309119957</v>
+        <v>0.01218191701307917</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>200.994713713177</v>
+        <v>19.892432</v>
       </c>
       <c r="H7">
-        <v>200.994713713177</v>
+        <v>39.784864</v>
       </c>
       <c r="I7">
-        <v>0.3878978739798406</v>
+        <v>0.03638758592113072</v>
       </c>
       <c r="J7">
-        <v>0.3878978739798406</v>
+        <v>0.02605491730493311</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.89971834182711</v>
+        <v>2.925121</v>
       </c>
       <c r="N7">
-        <v>0.89971834182711</v>
+        <v>5.850242</v>
       </c>
       <c r="O7">
-        <v>0.01021745903642287</v>
+        <v>0.03272012940751275</v>
       </c>
       <c r="P7">
-        <v>0.01021745903642287</v>
+        <v>0.02746364037192437</v>
       </c>
       <c r="Q7">
-        <v>180.8386305380343</v>
+        <v>58.18777058427199</v>
       </c>
       <c r="R7">
-        <v>180.8386305380343</v>
+        <v>232.751082337088</v>
       </c>
       <c r="S7">
-        <v>0.003963330637704543</v>
+        <v>0.001190606520166386</v>
       </c>
       <c r="T7">
-        <v>0.003963330637704543</v>
+        <v>0.0007155628787829119</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>200.994713713177</v>
+        <v>210.2874346666667</v>
       </c>
       <c r="H8">
-        <v>200.994713713177</v>
+        <v>630.862304</v>
       </c>
       <c r="I8">
-        <v>0.3878978739798406</v>
+        <v>0.3846614680933682</v>
       </c>
       <c r="J8">
-        <v>0.3878978739798406</v>
+        <v>0.4131487080493621</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>32.2070221537436</v>
+        <v>52.251791</v>
       </c>
       <c r="N8">
-        <v>32.2070221537436</v>
+        <v>104.503582</v>
       </c>
       <c r="O8">
-        <v>0.3657521629188639</v>
+        <v>0.5844836378714966</v>
       </c>
       <c r="P8">
-        <v>0.3657521629188639</v>
+        <v>0.4905863370482637</v>
       </c>
       <c r="Q8">
-        <v>6473.441197345644</v>
+        <v>10987.89508612882</v>
       </c>
       <c r="R8">
-        <v>6473.441197345644</v>
+        <v>65927.37051677292</v>
       </c>
       <c r="S8">
-        <v>0.1418744863997556</v>
+        <v>0.2248283342202024</v>
       </c>
       <c r="T8">
-        <v>0.1418744863997556</v>
+        <v>0.2026851113381591</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,122 +968,122 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>200.994713713177</v>
+        <v>210.2874346666667</v>
       </c>
       <c r="H9">
-        <v>200.994713713177</v>
+        <v>630.862304</v>
       </c>
       <c r="I9">
-        <v>0.3878978739798406</v>
+        <v>0.3846614680933682</v>
       </c>
       <c r="J9">
-        <v>0.3878978739798406</v>
+        <v>0.4131487080493621</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.79782160746481</v>
+        <v>0.9364056666666668</v>
       </c>
       <c r="N9">
-        <v>2.79782160746481</v>
+        <v>2.809217</v>
       </c>
       <c r="O9">
-        <v>0.03177286305782982</v>
+        <v>0.01047454604143267</v>
       </c>
       <c r="P9">
-        <v>0.03177286305782982</v>
+        <v>0.01318771521155813</v>
       </c>
       <c r="Q9">
-        <v>562.3473530129302</v>
+        <v>196.9143454506631</v>
       </c>
       <c r="R9">
-        <v>562.3473530129302</v>
+        <v>1772.229109055968</v>
       </c>
       <c r="S9">
-        <v>0.01232462603038481</v>
+        <v>0.00402915425790907</v>
       </c>
       <c r="T9">
-        <v>0.01232462603038481</v>
+        <v>0.005448487501778162</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>114.880095273115</v>
+        <v>210.2874346666667</v>
       </c>
       <c r="H10">
-        <v>114.880095273115</v>
+        <v>630.862304</v>
       </c>
       <c r="I10">
-        <v>0.2217060533374686</v>
+        <v>0.3846614680933682</v>
       </c>
       <c r="J10">
-        <v>0.2217060533374686</v>
+        <v>0.4131487080493621</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>52.1523939972848</v>
+        <v>0.01428866666666667</v>
       </c>
       <c r="N10">
-        <v>52.1523939972848</v>
+        <v>0.042866</v>
       </c>
       <c r="O10">
-        <v>0.5922575149868834</v>
+        <v>0.0001598316864137063</v>
       </c>
       <c r="P10">
-        <v>0.5922575149868834</v>
+        <v>0.0002012320871825319</v>
       </c>
       <c r="Q10">
-        <v>5991.271991129109</v>
+        <v>3.004727058140444</v>
       </c>
       <c r="R10">
-        <v>5991.271991129109</v>
+        <v>27.042543523264</v>
       </c>
       <c r="S10">
-        <v>0.1313070762071986</v>
+        <v>6.148109114373513E-05</v>
       </c>
       <c r="T10">
-        <v>0.1313070762071986</v>
+        <v>8.313877683753966E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>114.880095273115</v>
+        <v>210.2874346666667</v>
       </c>
       <c r="H11">
-        <v>114.880095273115</v>
+        <v>630.862304</v>
       </c>
       <c r="I11">
-        <v>0.2217060533374686</v>
+        <v>0.3846614680933682</v>
       </c>
       <c r="J11">
-        <v>0.2217060533374686</v>
+        <v>0.4131487080493621</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.89971834182711</v>
+        <v>0.07195466666666667</v>
       </c>
       <c r="N11">
-        <v>0.89971834182711</v>
+        <v>0.215864</v>
       </c>
       <c r="O11">
-        <v>0.01021745903642287</v>
+        <v>0.0008048781588207043</v>
       </c>
       <c r="P11">
-        <v>0.01021745903642287</v>
+        <v>0.001013361714822238</v>
       </c>
       <c r="Q11">
-        <v>103.3597288280674</v>
+        <v>15.13116226562844</v>
       </c>
       <c r="R11">
-        <v>103.3597288280674</v>
+        <v>136.180460390656</v>
       </c>
       <c r="S11">
-        <v>0.00226527251810257</v>
+        <v>0.0003096056142082592</v>
       </c>
       <c r="T11">
-        <v>0.00226527251810257</v>
+        <v>0.0004186690832654939</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1157,57 +1157,57 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>114.880095273115</v>
+        <v>210.2874346666667</v>
       </c>
       <c r="H12">
-        <v>114.880095273115</v>
+        <v>630.862304</v>
       </c>
       <c r="I12">
-        <v>0.2217060533374686</v>
+        <v>0.3846614680933682</v>
       </c>
       <c r="J12">
-        <v>0.2217060533374686</v>
+        <v>0.4131487080493621</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>32.2070221537436</v>
+        <v>33.198649</v>
       </c>
       <c r="N12">
-        <v>32.2070221537436</v>
+        <v>99.595947</v>
       </c>
       <c r="O12">
-        <v>0.3657521629188639</v>
+        <v>0.3713569768343236</v>
       </c>
       <c r="P12">
-        <v>0.3657521629188639</v>
+        <v>0.467547713566249</v>
       </c>
       <c r="Q12">
-        <v>3699.94577348539</v>
+        <v>6981.258732609097</v>
       </c>
       <c r="R12">
-        <v>3699.94577348539</v>
+        <v>62831.32859348189</v>
       </c>
       <c r="S12">
-        <v>0.08108946854038414</v>
+        <v>0.1428467198958058</v>
       </c>
       <c r="T12">
-        <v>0.08108946854038414</v>
+        <v>0.193166733811329</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,57 +1219,57 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>114.880095273115</v>
+        <v>210.2874346666667</v>
       </c>
       <c r="H13">
-        <v>114.880095273115</v>
+        <v>630.862304</v>
       </c>
       <c r="I13">
-        <v>0.2217060533374686</v>
+        <v>0.3846614680933682</v>
       </c>
       <c r="J13">
-        <v>0.2217060533374686</v>
+        <v>0.4131487080493621</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.79782160746481</v>
+        <v>2.925121</v>
       </c>
       <c r="N13">
-        <v>2.79782160746481</v>
+        <v>5.850242</v>
       </c>
       <c r="O13">
-        <v>0.03177286305782982</v>
+        <v>0.03272012940751275</v>
       </c>
       <c r="P13">
-        <v>0.03177286305782982</v>
+        <v>0.02746364037192437</v>
       </c>
       <c r="Q13">
-        <v>321.4140128227371</v>
+        <v>615.1161911795946</v>
       </c>
       <c r="R13">
-        <v>321.4140128227371</v>
+        <v>3690.697147077568</v>
       </c>
       <c r="S13">
-        <v>0.007044236071783304</v>
+        <v>0.01258617301409884</v>
       </c>
       <c r="T13">
-        <v>0.007044236071783304</v>
+        <v>0.01134656753799286</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1281,57 +1281,57 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>74.6184605076548</v>
+        <v>129.8949766666667</v>
       </c>
       <c r="H14">
-        <v>74.6184605076548</v>
+        <v>389.68493</v>
       </c>
       <c r="I14">
-        <v>0.1440054897755773</v>
+        <v>0.2376061722458875</v>
       </c>
       <c r="J14">
-        <v>0.1440054897755773</v>
+        <v>0.255202798384045</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>52.1523939972848</v>
+        <v>52.251791</v>
       </c>
       <c r="N14">
-        <v>52.1523939972848</v>
+        <v>104.503582</v>
       </c>
       <c r="O14">
-        <v>0.5922575149868834</v>
+        <v>0.5844836378714966</v>
       </c>
       <c r="P14">
-        <v>0.5922575149868834</v>
+        <v>0.4905863370482637</v>
       </c>
       <c r="Q14">
-        <v>3891.531351866049</v>
+        <v>6787.245172736543</v>
       </c>
       <c r="R14">
-        <v>3891.531351866049</v>
+        <v>40723.47103641926</v>
       </c>
       <c r="S14">
-        <v>0.08528833351895246</v>
+        <v>0.1388769199349977</v>
       </c>
       <c r="T14">
-        <v>0.08528833351895246</v>
+        <v>0.1251990060636952</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1343,57 +1343,57 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>74.6184605076548</v>
+        <v>129.8949766666667</v>
       </c>
       <c r="H15">
-        <v>74.6184605076548</v>
+        <v>389.68493</v>
       </c>
       <c r="I15">
-        <v>0.1440054897755773</v>
+        <v>0.2376061722458875</v>
       </c>
       <c r="J15">
-        <v>0.1440054897755773</v>
+        <v>0.255202798384045</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.89971834182711</v>
+        <v>0.9364056666666668</v>
       </c>
       <c r="N15">
-        <v>0.89971834182711</v>
+        <v>2.809217</v>
       </c>
       <c r="O15">
-        <v>0.01021745903642287</v>
+        <v>0.01047454604143267</v>
       </c>
       <c r="P15">
-        <v>0.01021745903642287</v>
+        <v>0.01318771521155813</v>
       </c>
       <c r="Q15">
-        <v>67.13559755763887</v>
+        <v>121.6343922222011</v>
       </c>
       <c r="R15">
-        <v>67.13559755763887</v>
+        <v>1094.70952999981</v>
       </c>
       <c r="S15">
-        <v>0.001471370192801974</v>
+        <v>0.00248881679091813</v>
       </c>
       <c r="T15">
-        <v>0.001471370192801974</v>
+        <v>0.003365541826281473</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,184 +1402,184 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>74.6184605076548</v>
+        <v>129.8949766666667</v>
       </c>
       <c r="H16">
-        <v>74.6184605076548</v>
+        <v>389.68493</v>
       </c>
       <c r="I16">
-        <v>0.1440054897755773</v>
+        <v>0.2376061722458875</v>
       </c>
       <c r="J16">
-        <v>0.1440054897755773</v>
+        <v>0.255202798384045</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>32.2070221537436</v>
+        <v>0.01428866666666667</v>
       </c>
       <c r="N16">
-        <v>32.2070221537436</v>
+        <v>0.042866</v>
       </c>
       <c r="O16">
-        <v>0.3657521629188639</v>
+        <v>0.0001598316864137063</v>
       </c>
       <c r="P16">
-        <v>0.3657521629188639</v>
+        <v>0.0002012320871825319</v>
       </c>
       <c r="Q16">
-        <v>2403.23841064828</v>
+        <v>1.856026023264445</v>
       </c>
       <c r="R16">
-        <v>2403.23841064828</v>
+        <v>16.70423420938</v>
       </c>
       <c r="S16">
-        <v>0.05267031935760774</v>
+        <v>3.797699521236578E-05</v>
       </c>
       <c r="T16">
-        <v>0.05267031935760774</v>
+        <v>5.135499177364427E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>25</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>74.6184605076548</v>
+        <v>129.8949766666667</v>
       </c>
       <c r="H17">
-        <v>74.6184605076548</v>
+        <v>389.68493</v>
       </c>
       <c r="I17">
-        <v>0.1440054897755773</v>
+        <v>0.2376061722458875</v>
       </c>
       <c r="J17">
-        <v>0.1440054897755773</v>
+        <v>0.255202798384045</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>2.79782160746481</v>
+        <v>0.07195466666666667</v>
       </c>
       <c r="N17">
-        <v>2.79782160746481</v>
+        <v>0.215864</v>
       </c>
       <c r="O17">
-        <v>0.03177286305782982</v>
+        <v>0.0008048781588207043</v>
       </c>
       <c r="P17">
-        <v>0.03177286305782982</v>
+        <v>0.001013361714822238</v>
       </c>
       <c r="Q17">
-        <v>208.7691411240762</v>
+        <v>9.346549747724445</v>
       </c>
       <c r="R17">
-        <v>208.7691411240762</v>
+        <v>84.11894772952</v>
       </c>
       <c r="S17">
-        <v>0.004575466706215131</v>
+        <v>0.000191244018441705</v>
       </c>
       <c r="T17">
-        <v>0.004575466706215131</v>
+        <v>0.0002586127453978899</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>16.3521489985639</v>
+        <v>129.8949766666667</v>
       </c>
       <c r="H18">
-        <v>16.3521489985639</v>
+        <v>389.68493</v>
       </c>
       <c r="I18">
-        <v>0.03155786395753691</v>
+        <v>0.2376061722458875</v>
       </c>
       <c r="J18">
-        <v>0.03155786395753691</v>
+        <v>0.255202798384045</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>52.1523939972848</v>
+        <v>33.198649</v>
       </c>
       <c r="N18">
-        <v>52.1523939972848</v>
+        <v>99.595947</v>
       </c>
       <c r="O18">
-        <v>0.5922575149868834</v>
+        <v>0.3713569768343236</v>
       </c>
       <c r="P18">
-        <v>0.5922575149868834</v>
+        <v>0.467547713566249</v>
       </c>
       <c r="Q18">
-        <v>852.8037172754106</v>
+        <v>4312.337737219857</v>
       </c>
       <c r="R18">
-        <v>852.8037172754106</v>
+        <v>38811.03963497871</v>
       </c>
       <c r="S18">
-        <v>0.01869038208578494</v>
+        <v>0.08823670980240833</v>
       </c>
       <c r="T18">
-        <v>0.01869038208578494</v>
+        <v>0.1193194848801687</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,60 +1588,60 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>16.3521489985639</v>
+        <v>129.8949766666667</v>
       </c>
       <c r="H19">
-        <v>16.3521489985639</v>
+        <v>389.68493</v>
       </c>
       <c r="I19">
-        <v>0.03155786395753691</v>
+        <v>0.2376061722458875</v>
       </c>
       <c r="J19">
-        <v>0.03155786395753691</v>
+        <v>0.255202798384045</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.89971834182711</v>
+        <v>2.925121</v>
       </c>
       <c r="N19">
-        <v>0.89971834182711</v>
+        <v>5.850242</v>
       </c>
       <c r="O19">
-        <v>0.01021745903642287</v>
+        <v>0.03272012940751275</v>
       </c>
       <c r="P19">
-        <v>0.01021745903642287</v>
+        <v>0.02746364037192437</v>
       </c>
       <c r="Q19">
-        <v>14.71232838229775</v>
+        <v>379.9585240421767</v>
       </c>
       <c r="R19">
-        <v>14.71232838229775</v>
+        <v>2279.75114425306</v>
       </c>
       <c r="S19">
-        <v>0.0003224411822631391</v>
+        <v>0.007774504703909201</v>
       </c>
       <c r="T19">
-        <v>0.0003224411822631391</v>
+        <v>0.007008797876728133</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1650,60 +1650,60 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>16.3521489985639</v>
+        <v>76.19421933333332</v>
       </c>
       <c r="H20">
-        <v>16.3521489985639</v>
+        <v>228.582658</v>
       </c>
       <c r="I20">
-        <v>0.03155786395753691</v>
+        <v>0.1393758039582664</v>
       </c>
       <c r="J20">
-        <v>0.03155786395753691</v>
+        <v>0.1496976903460524</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>32.2070221537436</v>
+        <v>52.251791</v>
       </c>
       <c r="N20">
-        <v>32.2070221537436</v>
+        <v>104.503582</v>
       </c>
       <c r="O20">
-        <v>0.3657521629188639</v>
+        <v>0.5844836378714966</v>
       </c>
       <c r="P20">
-        <v>0.3657521629188639</v>
+        <v>0.4905863370482637</v>
       </c>
       <c r="Q20">
-        <v>526.6540250580638</v>
+        <v>3981.284424013492</v>
       </c>
       <c r="R20">
-        <v>526.6540250580638</v>
+        <v>23887.70654408095</v>
       </c>
       <c r="S20">
-        <v>0.01154235699956838</v>
+        <v>0.0814628769287921</v>
       </c>
       <c r="T20">
-        <v>0.01154235699956838</v>
+        <v>0.07343964157145508</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1712,60 +1712,60 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>16.3521489985639</v>
+        <v>76.19421933333332</v>
       </c>
       <c r="H21">
-        <v>16.3521489985639</v>
+        <v>228.582658</v>
       </c>
       <c r="I21">
-        <v>0.03155786395753691</v>
+        <v>0.1393758039582664</v>
       </c>
       <c r="J21">
-        <v>0.03155786395753691</v>
+        <v>0.1496976903460524</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>2.79782160746481</v>
+        <v>0.9364056666666668</v>
       </c>
       <c r="N21">
-        <v>2.79782160746481</v>
+        <v>2.809217</v>
       </c>
       <c r="O21">
-        <v>0.03177286305782982</v>
+        <v>0.01047454604143267</v>
       </c>
       <c r="P21">
-        <v>0.03177286305782982</v>
+        <v>0.01318771521155813</v>
       </c>
       <c r="Q21">
-        <v>45.75039579666613</v>
+        <v>71.34869875097623</v>
       </c>
       <c r="R21">
-        <v>45.75039579666613</v>
+        <v>642.138288758786</v>
       </c>
       <c r="S21">
-        <v>0.001002683689920444</v>
+        <v>0.001459898275622556</v>
       </c>
       <c r="T21">
-        <v>0.001002683689920444</v>
+        <v>0.001974170508111754</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>91.4764482908505</v>
+        <v>76.19421933333332</v>
       </c>
       <c r="H22">
-        <v>91.4764482908505</v>
+        <v>228.582658</v>
       </c>
       <c r="I22">
-        <v>0.1765395674131179</v>
+        <v>0.1393758039582664</v>
       </c>
       <c r="J22">
-        <v>0.1765395674131179</v>
+        <v>0.1496976903460524</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>52.1523939972848</v>
+        <v>0.01428866666666667</v>
       </c>
       <c r="N22">
-        <v>52.1523939972848</v>
+        <v>0.042866</v>
       </c>
       <c r="O22">
-        <v>0.5922575149868834</v>
+        <v>0.0001598316864137063</v>
       </c>
       <c r="P22">
-        <v>0.5922575149868834</v>
+        <v>0.0002012320871825319</v>
       </c>
       <c r="Q22">
-        <v>4770.715772736685</v>
+        <v>1.088713801980889</v>
       </c>
       <c r="R22">
-        <v>4770.715772736685</v>
+        <v>9.798424217828</v>
       </c>
       <c r="S22">
-        <v>0.1045568854929526</v>
+        <v>2.227666979191585E-05</v>
       </c>
       <c r="T22">
-        <v>0.1045568854929526</v>
+        <v>3.012397867474048E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,60 +1836,60 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>91.4764482908505</v>
+        <v>76.19421933333332</v>
       </c>
       <c r="H23">
-        <v>91.4764482908505</v>
+        <v>228.582658</v>
       </c>
       <c r="I23">
-        <v>0.1765395674131179</v>
+        <v>0.1393758039582664</v>
       </c>
       <c r="J23">
-        <v>0.1765395674131179</v>
+        <v>0.1496976903460524</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M23">
-        <v>0.89971834182711</v>
+        <v>0.07195466666666667</v>
       </c>
       <c r="N23">
-        <v>0.89971834182711</v>
+        <v>0.215864</v>
       </c>
       <c r="O23">
-        <v>0.01021745903642287</v>
+        <v>0.0008048781588207043</v>
       </c>
       <c r="P23">
-        <v>0.01021745903642287</v>
+        <v>0.001013361714822238</v>
       </c>
       <c r="Q23">
-        <v>82.30303837247737</v>
+        <v>5.482529654056888</v>
       </c>
       <c r="R23">
-        <v>82.30303837247737</v>
+        <v>49.342766886512</v>
       </c>
       <c r="S23">
-        <v>0.001803785798351346</v>
+        <v>0.0001121805404740849</v>
       </c>
       <c r="T23">
-        <v>0.001803785798351346</v>
+        <v>0.0001516979081940041</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1901,57 +1901,57 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>91.4764482908505</v>
+        <v>76.19421933333332</v>
       </c>
       <c r="H24">
-        <v>91.4764482908505</v>
+        <v>228.582658</v>
       </c>
       <c r="I24">
-        <v>0.1765395674131179</v>
+        <v>0.1393758039582664</v>
       </c>
       <c r="J24">
-        <v>0.1765395674131179</v>
+        <v>0.1496976903460524</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>32.2070221537436</v>
+        <v>33.198649</v>
       </c>
       <c r="N24">
-        <v>32.2070221537436</v>
+        <v>99.595947</v>
       </c>
       <c r="O24">
-        <v>0.3657521629188639</v>
+        <v>0.3713569768343236</v>
       </c>
       <c r="P24">
-        <v>0.3657521629188639</v>
+        <v>0.467547713566249</v>
       </c>
       <c r="Q24">
-        <v>2946.183996649203</v>
+        <v>2529.545143476347</v>
       </c>
       <c r="R24">
-        <v>2946.183996649203</v>
+        <v>22765.90629128712</v>
       </c>
       <c r="S24">
-        <v>0.06456972862210843</v>
+        <v>0.05175817720179517</v>
       </c>
       <c r="T24">
-        <v>0.06456972862210843</v>
+        <v>0.06999081284744514</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1963,52 +1963,796 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>91.4764482908505</v>
+        <v>76.19421933333332</v>
       </c>
       <c r="H25">
-        <v>91.4764482908505</v>
+        <v>228.582658</v>
       </c>
       <c r="I25">
-        <v>0.1765395674131179</v>
+        <v>0.1393758039582664</v>
       </c>
       <c r="J25">
-        <v>0.1765395674131179</v>
+        <v>0.1496976903460524</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>2.79782160746481</v>
+        <v>2.925121</v>
       </c>
       <c r="N25">
-        <v>2.79782160746481</v>
+        <v>5.850242</v>
       </c>
       <c r="O25">
-        <v>0.03177286305782982</v>
+        <v>0.03272012940751275</v>
       </c>
       <c r="P25">
-        <v>0.03177286305782982</v>
+        <v>0.02746364037192437</v>
       </c>
       <c r="Q25">
-        <v>255.9347836022789</v>
+        <v>222.8773110505393</v>
       </c>
       <c r="R25">
-        <v>255.9347836022789</v>
+        <v>1337.263866303236</v>
       </c>
       <c r="S25">
-        <v>0.00560916749970551</v>
+        <v>0.004560394341790605</v>
       </c>
       <c r="T25">
-        <v>0.00560916749970551</v>
+        <v>0.004111243532171677</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>17.22153466666667</v>
+      </c>
+      <c r="H26">
+        <v>51.664604</v>
+      </c>
+      <c r="I26">
+        <v>0.03150193361862766</v>
+      </c>
+      <c r="J26">
+        <v>0.03383490225861063</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>52.251791</v>
+      </c>
+      <c r="N26">
+        <v>104.503582</v>
+      </c>
+      <c r="O26">
+        <v>0.5844836378714966</v>
+      </c>
+      <c r="P26">
+        <v>0.4905863370482637</v>
+      </c>
+      <c r="Q26">
+        <v>899.8560301019213</v>
+      </c>
+      <c r="R26">
+        <v>5399.136180611527</v>
+      </c>
+      <c r="S26">
+        <v>0.01841236476140189</v>
+      </c>
+      <c r="T26">
+        <v>0.01659894076343781</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>17.22153466666667</v>
+      </c>
+      <c r="H27">
+        <v>51.664604</v>
+      </c>
+      <c r="I27">
+        <v>0.03150193361862766</v>
+      </c>
+      <c r="J27">
+        <v>0.03383490225861063</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0.9364056666666668</v>
+      </c>
+      <c r="N27">
+        <v>2.809217</v>
+      </c>
+      <c r="O27">
+        <v>0.01047454604143267</v>
+      </c>
+      <c r="P27">
+        <v>0.01318771521155813</v>
+      </c>
+      <c r="Q27">
+        <v>16.12634265056311</v>
+      </c>
+      <c r="R27">
+        <v>145.137083855068</v>
+      </c>
+      <c r="S27">
+        <v>0.0003299684540824712</v>
+      </c>
+      <c r="T27">
+        <v>0.0004462050551974619</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>17.22153466666667</v>
+      </c>
+      <c r="H28">
+        <v>51.664604</v>
+      </c>
+      <c r="I28">
+        <v>0.03150193361862766</v>
+      </c>
+      <c r="J28">
+        <v>0.03383490225861063</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M28">
+        <v>0.01428866666666667</v>
+      </c>
+      <c r="N28">
+        <v>0.042866</v>
+      </c>
+      <c r="O28">
+        <v>0.0001598316864137063</v>
+      </c>
+      <c r="P28">
+        <v>0.0002012320871825319</v>
+      </c>
+      <c r="Q28">
+        <v>0.2460727683404444</v>
+      </c>
+      <c r="R28">
+        <v>2.214654915064</v>
+      </c>
+      <c r="S28">
+        <v>5.035007175557889E-06</v>
+      </c>
+      <c r="T28">
+        <v>6.808668001117179E-06</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>17.22153466666667</v>
+      </c>
+      <c r="H29">
+        <v>51.664604</v>
+      </c>
+      <c r="I29">
+        <v>0.03150193361862766</v>
+      </c>
+      <c r="J29">
+        <v>0.03383490225861063</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M29">
+        <v>0.07195466666666667</v>
+      </c>
+      <c r="N29">
+        <v>0.215864</v>
+      </c>
+      <c r="O29">
+        <v>0.0008048781588207043</v>
+      </c>
+      <c r="P29">
+        <v>0.001013361714822238</v>
+      </c>
+      <c r="Q29">
+        <v>1.239169786428445</v>
+      </c>
+      <c r="R29">
+        <v>11.152528077856</v>
+      </c>
+      <c r="S29">
+        <v>2.535521833025308E-05</v>
+      </c>
+      <c r="T29">
+        <v>3.42869945736285E-05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>17.22153466666667</v>
+      </c>
+      <c r="H30">
+        <v>51.664604</v>
+      </c>
+      <c r="I30">
+        <v>0.03150193361862766</v>
+      </c>
+      <c r="J30">
+        <v>0.03383490225861063</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>33.198649</v>
+      </c>
+      <c r="N30">
+        <v>99.595947</v>
+      </c>
+      <c r="O30">
+        <v>0.3713569768343236</v>
+      </c>
+      <c r="P30">
+        <v>0.467547713566249</v>
+      </c>
+      <c r="Q30">
+        <v>571.7316846399987</v>
+      </c>
+      <c r="R30">
+        <v>5145.585161759987</v>
+      </c>
+      <c r="S30">
+        <v>0.01169846283304911</v>
+      </c>
+      <c r="T30">
+        <v>0.01581943118975091</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>17.22153466666667</v>
+      </c>
+      <c r="H31">
+        <v>51.664604</v>
+      </c>
+      <c r="I31">
+        <v>0.03150193361862766</v>
+      </c>
+      <c r="J31">
+        <v>0.03383490225861063</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>2.925121</v>
+      </c>
+      <c r="N31">
+        <v>5.850242</v>
+      </c>
+      <c r="O31">
+        <v>0.03272012940751275</v>
+      </c>
+      <c r="P31">
+        <v>0.02746364037192437</v>
+      </c>
+      <c r="Q31">
+        <v>50.37507270569466</v>
+      </c>
+      <c r="R31">
+        <v>302.250436234168</v>
+      </c>
+      <c r="S31">
+        <v>0.001030747344588373</v>
+      </c>
+      <c r="T31">
+        <v>0.0009292295876496937</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>93.19123099999999</v>
+      </c>
+      <c r="H32">
+        <v>186.382462</v>
+      </c>
+      <c r="I32">
+        <v>0.1704670361627196</v>
+      </c>
+      <c r="J32">
+        <v>0.1220609836569967</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>52.251791</v>
+      </c>
+      <c r="N32">
+        <v>104.503582</v>
+      </c>
+      <c r="O32">
+        <v>0.5844836378714966</v>
+      </c>
+      <c r="P32">
+        <v>0.4905863370482637</v>
+      </c>
+      <c r="Q32">
+        <v>4869.40872524472</v>
+      </c>
+      <c r="R32">
+        <v>19477.63490097888</v>
+      </c>
+      <c r="S32">
+        <v>0.0996351934335583</v>
+      </c>
+      <c r="T32">
+        <v>0.05988145086879401</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>93.19123099999999</v>
+      </c>
+      <c r="H33">
+        <v>186.382462</v>
+      </c>
+      <c r="I33">
+        <v>0.1704670361627196</v>
+      </c>
+      <c r="J33">
+        <v>0.1220609836569967</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>0.9364056666666668</v>
+      </c>
+      <c r="N33">
+        <v>2.809217</v>
+      </c>
+      <c r="O33">
+        <v>0.01047454604143267</v>
+      </c>
+      <c r="P33">
+        <v>0.01318771521155813</v>
+      </c>
+      <c r="Q33">
+        <v>87.26479679204233</v>
+      </c>
+      <c r="R33">
+        <v>523.588780752254</v>
+      </c>
+      <c r="S33">
+        <v>0.001785564818832975</v>
+      </c>
+      <c r="T33">
+        <v>0.001609705490911124</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>93.19123099999999</v>
+      </c>
+      <c r="H34">
+        <v>186.382462</v>
+      </c>
+      <c r="I34">
+        <v>0.1704670361627196</v>
+      </c>
+      <c r="J34">
+        <v>0.1220609836569967</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M34">
+        <v>0.01428866666666667</v>
+      </c>
+      <c r="N34">
+        <v>0.042866</v>
+      </c>
+      <c r="O34">
+        <v>0.0001598316864137063</v>
+      </c>
+      <c r="P34">
+        <v>0.0002012320871825319</v>
+      </c>
+      <c r="Q34">
+        <v>1.331578436015333</v>
+      </c>
+      <c r="R34">
+        <v>7.989470616091999</v>
+      </c>
+      <c r="S34">
+        <v>2.724603386783374E-05</v>
+      </c>
+      <c r="T34">
+        <v>2.456258650485037E-05</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>93.19123099999999</v>
+      </c>
+      <c r="H35">
+        <v>186.382462</v>
+      </c>
+      <c r="I35">
+        <v>0.1704670361627196</v>
+      </c>
+      <c r="J35">
+        <v>0.1220609836569967</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M35">
+        <v>0.07195466666666667</v>
+      </c>
+      <c r="N35">
+        <v>0.215864</v>
+      </c>
+      <c r="O35">
+        <v>0.0008048781588207043</v>
+      </c>
+      <c r="P35">
+        <v>0.001013361714822238</v>
+      </c>
+      <c r="Q35">
+        <v>6.705543962861332</v>
+      </c>
+      <c r="R35">
+        <v>40.23326377716799</v>
+      </c>
+      <c r="S35">
+        <v>0.0001372051942062722</v>
+      </c>
+      <c r="T35">
+        <v>0.0001236919277115435</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>93.19123099999999</v>
+      </c>
+      <c r="H36">
+        <v>186.382462</v>
+      </c>
+      <c r="I36">
+        <v>0.1704670361627196</v>
+      </c>
+      <c r="J36">
+        <v>0.1220609836569967</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>33.198649</v>
+      </c>
+      <c r="N36">
+        <v>99.595947</v>
+      </c>
+      <c r="O36">
+        <v>0.3713569768343236</v>
+      </c>
+      <c r="P36">
+        <v>0.467547713566249</v>
+      </c>
+      <c r="Q36">
+        <v>3093.822967846918</v>
+      </c>
+      <c r="R36">
+        <v>18562.93780708151</v>
+      </c>
+      <c r="S36">
+        <v>0.06330412319929486</v>
+      </c>
+      <c r="T36">
+        <v>0.05706933382447611</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>93.19123099999999</v>
+      </c>
+      <c r="H37">
+        <v>186.382462</v>
+      </c>
+      <c r="I37">
+        <v>0.1704670361627196</v>
+      </c>
+      <c r="J37">
+        <v>0.1220609836569967</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>2.925121</v>
+      </c>
+      <c r="N37">
+        <v>5.850242</v>
+      </c>
+      <c r="O37">
+        <v>0.03272012940751275</v>
+      </c>
+      <c r="P37">
+        <v>0.02746364037192437</v>
+      </c>
+      <c r="Q37">
+        <v>272.595626813951</v>
+      </c>
+      <c r="R37">
+        <v>1090.382507255804</v>
+      </c>
+      <c r="S37">
+        <v>0.00557770348295934</v>
+      </c>
+      <c r="T37">
+        <v>0.003352238958599096</v>
       </c>
     </row>
   </sheetData>
